--- a/Eindwerk Documenten/Factuur/Factuur Webshop-evi.xlsx
+++ b/Eindwerk Documenten/Factuur/Factuur Webshop-evi.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>FACTUUR</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t xml:space="preserve">-Hosting voor een jaar</t>
+  </si>
+  <si>
+    <t>12*50€</t>
   </si>
   <si>
     <t xml:space="preserve">BTW 21%</t>
@@ -284,7 +287,7 @@
     </xf>
     <xf fontId="6" fillId="0" borderId="3" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -306,9 +309,6 @@
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -321,9 +321,6 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="left" indent="6" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="12" applyAlignment="1">
-      <alignment horizontal="left" indent="6" wrapText="1"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="161" xfId="13" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
@@ -351,8 +348,8 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="12" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -365,9 +362,6 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="4" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1020,99 +1014,101 @@
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
       <c r="B4" s="6"/>
-      <c r="C4" s="8"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" ht="30" customHeight="1">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="B9" s="12"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="B10" s="13"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="14"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" ht="30" customHeight="1">
-      <c r="B11" s="15"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" ht="30" customHeight="1">
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" ht="45" customHeight="1">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="20"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="19">
         <f>223*35</f>
         <v>7805</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="21"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" ht="30" customHeight="1">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="22">
+      <c r="C16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="19">
         <f>12*50</f>
         <v>600</v>
       </c>
@@ -1120,12 +1116,12 @@
     <row r="17" ht="30" customHeight="1">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="21"/>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" ht="30" customHeight="1">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="21"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" ht="30" customHeight="1"/>
     <row r="20" ht="30" customHeight="1"/>
@@ -1133,20 +1129,20 @@
     <row r="22" ht="30" customHeight="1"/>
     <row r="23" ht="30" customHeight="1">
       <c r="B23" s="1"/>
-      <c r="C23" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="21">
+      <c r="C23" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="19">
         <f>SUM((D14+D15+D16)*21%)</f>
         <v>1765.05</v>
       </c>
     </row>
     <row r="24" ht="30" customHeight="1">
-      <c r="B24" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26">
+      <c r="B24" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24">
         <f>SUM(D14+D15+D16)+D23</f>
         <v>10170.049999999999</v>
       </c>
@@ -1157,24 +1153,24 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" ht="30" customHeight="1">
-      <c r="B26" s="7" t="s">
-        <v>18</v>
+      <c r="B26" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C26" s="1"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="B27" s="7" t="s">
-        <v>19</v>
+      <c r="B27" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" ht="30" customHeight="1">
-      <c r="B28" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
+      <c r="B28" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
     </row>
     <row r="29" ht="30" customHeight="1">
       <c r="B29" s="1"/>
@@ -1225,7 +1221,7 @@
   </dataValidations>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.40000000000000008" right="0.40000000000000008" top="0.40000000000000008" bottom="0.40000000000000008" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="92" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="92" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
